--- a/Categorias.xlsx
+++ b/Categorias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Python\Scripts\Control-Monotributistas\LIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Python\Scripts\Control-Monotributistas-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF200F4-2B5A-452C-825D-459ABBF15EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62EA218-CBCC-4309-AC88-B113AE76C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,10 +172,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,18 +184,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -253,7 +262,7 @@
   <autoFilter ref="A1:B13" xr:uid="{7D291C88-9682-407B-A189-F68D848A75DE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{60E18DC0-5DE6-42F4-B933-C2A53F030FCE}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{6673F789-1B62-4DAE-B7C1-E5C510070E02}" name="Ingresos brutos" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6673F789-1B62-4DAE-B7C1-E5C510070E02}" name="Ingresos brutos" dataDxfId="0" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,13 +534,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,100 +555,100 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>999657.23</v>
+      <c r="B2" s="7">
+        <v>1414762.58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1485976.96</v>
+      <c r="B3" s="7">
+        <v>2103025.4500000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>2080367.73</v>
+      <c r="B4" s="7">
+        <v>2944235.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>2583720.42</v>
+      <c r="B5" s="7">
+        <v>3656604.33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>3042435.05</v>
+      <c r="B6" s="7">
+        <v>4305799.1500000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>3803043.82</v>
+      <c r="B7" s="7">
+        <v>5382248.9400000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>4563652.57</v>
+      <c r="B8" s="7">
+        <v>6458698.71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>5650236.5099999998</v>
+      <c r="B9" s="7">
+        <v>7996484.1200000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>6323918.5499999998</v>
+      <c r="B10" s="7">
+        <v>8949911.0600000005</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>7247514.9199999999</v>
+      <c r="B11" s="7">
+        <v>10257028.68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>8040721.1900000004</v>
+      <c r="B12" s="7">
+        <v>11379612.01</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>9.9999999999999898E+18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -661,22 +670,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44743</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <f>EDATE(A2,12)-1</f>
         <v>45107</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
